--- a/Schema university/university logical design.xlsx
+++ b/Schema university/university logical design.xlsx
@@ -167,12 +167,252 @@
         </r>
       </text>
     </comment>
+    <comment ref="B43" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>green:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입학년도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>마다
+각</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>전공의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공통된</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>졸업</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>요건</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B54" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>green:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>각</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>학생의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>졸업</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>충족</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>여부</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="125">
   <si>
     <t>과목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -322,10 +562,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>졸업요건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>입학년도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -374,10 +610,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>졸업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>졸업가능여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -663,6 +895,22 @@
   </si>
   <si>
     <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업이수학점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduation_total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업표준요건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생졸업상황</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -703,14 +951,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="5"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -729,6 +969,14 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -806,7 +1054,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -822,21 +1070,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -846,7 +1079,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1155,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I81"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1175,23 +1417,35 @@
     <col min="10" max="10" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C2" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="12" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="E2" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1200,20 +1454,21 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1222,260 +1477,323 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="9"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="1"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="F10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="9"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C13" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="10" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="F18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="11"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="10" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="4" t="s">
         <v>1</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="2" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="G23" s="4" t="s">
         <v>71</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C25" s="5" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="F25" s="8"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C26" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
       <c r="G28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="2" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1484,138 +1802,173 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="10" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="5" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="9"/>
+      <c r="E31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C34" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="2" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E34" s="2" t="s">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C35" s="8"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="D37" s="3"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="10" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="10" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="9"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="6"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="2" t="s">
-        <v>37</v>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
+      <c r="B42" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -1624,148 +1977,168 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="2" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+      <c r="B43" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="10" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
+      <c r="B44" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="F44" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="11"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="8"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C46" s="6" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="E46" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>49</v>
+      <c r="F46" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C47" s="2" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="8"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="F49" s="8"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="8"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="E50" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F50" s="8"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="8"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="8"/>
       <c r="B53" s="4" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -1774,115 +2147,129 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="10" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="8"/>
+      <c r="B54" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>43</v>
+      <c r="C54" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="10" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="8"/>
+      <c r="B55" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="E55" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B56" s="11"/>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="8"/>
+      <c r="B56" s="6"/>
       <c r="C56" s="4"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="8"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>46</v>
+      <c r="C57" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="8"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>116</v>
+      <c r="F58" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
